--- a/05 Sent to client/Instacart_Final_Report.xlsx
+++ b/05 Sent to client/Instacart_Final_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giadairene/Documents/CareerFoundry Data Analytics/Data Analytics Immersion/Achievement 4/Instacart Basket Analysis/05 Sent to client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E1360-27CE-1F4C-9750-6ABE4D33C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F54C9-4E66-1E4F-94C1-C54D3CBF4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13960" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -567,29 +567,6 @@
     <t>Different customer profiles tend to purchase the same products from the same departments in equal proportions.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recommendation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> schedule most of the ads on Tuesdays and Wednesdays, which are the least busy days. Ads could be scheduled on Mondays, Thursdays and Fridays as well. The best times for ads would be evening and early morning.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Customers spend the most money at around 4 am, 6 am and 5 pm. The most purchased goods are produce, diary and eggs, snacks, beverages and frozen. </t>
   </si>
   <si>
@@ -783,6 +760,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> regularly monitor customer feedback, market trends, and competitor activities to adapt and evolve marketing and sales strategies accordingly. Stay agile and responsive to changes in customer preferences and market dynamics to maintain a competitive edge in the online grocery shopping landscape.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recommendation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Schedule ads during the busiest hours of the day, primarily 9 AM to 5PM, and refrain from advertising during the evening/early morning hours when consumers are asleep. Focus on advertising during the weekend into the new week (Saturday - Monday) as consumers are most active.</t>
     </r>
   </si>
 </sst>
@@ -1855,23 +1855,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19969,7 +19969,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B035289D-C8B7-3F46-A72F-36AEAA7F2984}" name="PivotTable1" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B035289D-C8B7-3F46-A72F-36AEAA7F2984}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="Z135:AB148" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisCol" showAll="0" sortType="descending">
@@ -20993,8 +20993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL423"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B422" sqref="B422:W423"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96:T97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21029,137 +21029,137 @@
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
     </row>
     <row r="7" spans="2:20" ht="17" customHeight="1">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
     </row>
     <row r="8" spans="2:20" ht="17" customHeight="1">
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
     </row>
     <row r="33" spans="2:20" ht="17">
       <c r="B33" s="73" t="s">
         <v>103</v>
       </c>
       <c r="C33" s="73"/>
-      <c r="D33" s="90" t="s">
+      <c r="D33" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
     </row>
     <row r="34" spans="2:20" ht="17" customHeight="1">
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="93"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
     </row>
     <row r="35" spans="2:20" ht="17" customHeight="1">
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="93"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
     </row>
     <row r="61" spans="2:20" ht="17">
       <c r="B61" s="73" t="s">
@@ -21167,68 +21167,68 @@
       </c>
       <c r="C61" s="73"/>
       <c r="D61" s="73"/>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="90"/>
-      <c r="R61" s="90"/>
-      <c r="S61" s="90"/>
-      <c r="T61" s="90"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="91"/>
+      <c r="S61" s="91"/>
+      <c r="T61" s="91"/>
     </row>
     <row r="62" spans="2:20" ht="20" customHeight="1">
-      <c r="B62" s="94" t="s">
+      <c r="B62" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="94"/>
-      <c r="M62" s="94"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="94"/>
-      <c r="P62" s="94"/>
-      <c r="Q62" s="94"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="94"/>
-      <c r="T62" s="94"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="90"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="90"/>
     </row>
     <row r="63" spans="2:20" ht="20" customHeight="1">
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="94"/>
-      <c r="M63" s="94"/>
-      <c r="N63" s="94"/>
-      <c r="O63" s="94"/>
-      <c r="P63" s="94"/>
-      <c r="Q63" s="94"/>
-      <c r="R63" s="94"/>
-      <c r="S63" s="94"/>
-      <c r="T63" s="94"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
     </row>
     <row r="64" spans="2:20" ht="17">
       <c r="B64" s="75"/>
@@ -21252,62 +21252,62 @@
       <c r="T64" s="76"/>
     </row>
     <row r="65" spans="2:8" ht="19">
-      <c r="G65" s="95" t="s">
+      <c r="G65" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="95"/>
+      <c r="H65" s="94"/>
     </row>
     <row r="66" spans="2:8" ht="19">
       <c r="B66" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="92">
+      <c r="E66" s="93">
         <v>16479445</v>
       </c>
-      <c r="F66" s="92"/>
-      <c r="G66" s="91">
+      <c r="F66" s="93"/>
+      <c r="G66" s="95">
         <f>E66/E$69</f>
         <v>0.67497554871974164</v>
       </c>
-      <c r="H66" s="91"/>
+      <c r="H66" s="95"/>
     </row>
     <row r="67" spans="2:8" ht="19">
       <c r="B67" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="92">
+      <c r="E67" s="93">
         <v>7626745</v>
       </c>
-      <c r="F67" s="92"/>
-      <c r="G67" s="91">
+      <c r="F67" s="93"/>
+      <c r="G67" s="95">
         <f t="shared" ref="G67:G68" si="0">E67/E$69</f>
         <v>0.31238105356828133</v>
       </c>
-      <c r="H67" s="91"/>
+      <c r="H67" s="95"/>
     </row>
     <row r="68" spans="2:8" ht="19">
       <c r="B68" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="E68" s="92">
+      <c r="E68" s="93">
         <v>308687</v>
       </c>
-      <c r="F68" s="92"/>
-      <c r="G68" s="91">
+      <c r="F68" s="93"/>
+      <c r="G68" s="95">
         <f t="shared" si="0"/>
         <v>1.2643397711977004E-2</v>
       </c>
-      <c r="H68" s="91"/>
+      <c r="H68" s="95"/>
     </row>
     <row r="69" spans="2:8" ht="19">
       <c r="D69" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E69" s="92">
+      <c r="E69" s="93">
         <f>E66+E67+E68</f>
         <v>24414877</v>
       </c>
-      <c r="F69" s="92"/>
+      <c r="F69" s="93"/>
     </row>
     <row r="70" spans="2:8" ht="19">
       <c r="E70" s="74"/>
@@ -21318,68 +21318,68 @@
       </c>
       <c r="C95" s="73"/>
       <c r="D95" s="73"/>
-      <c r="E95" s="90" t="s">
+      <c r="E95" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="F95" s="90"/>
-      <c r="G95" s="90"/>
-      <c r="H95" s="90"/>
-      <c r="I95" s="90"/>
-      <c r="J95" s="90"/>
-      <c r="K95" s="90"/>
-      <c r="L95" s="90"/>
-      <c r="M95" s="90"/>
-      <c r="N95" s="90"/>
-      <c r="O95" s="90"/>
-      <c r="P95" s="90"/>
-      <c r="Q95" s="90"/>
-      <c r="R95" s="90"/>
-      <c r="S95" s="90"/>
-      <c r="T95" s="90"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="91"/>
+      <c r="J95" s="91"/>
+      <c r="K95" s="91"/>
+      <c r="L95" s="91"/>
+      <c r="M95" s="91"/>
+      <c r="N95" s="91"/>
+      <c r="O95" s="91"/>
+      <c r="P95" s="91"/>
+      <c r="Q95" s="91"/>
+      <c r="R95" s="91"/>
+      <c r="S95" s="91"/>
+      <c r="T95" s="91"/>
     </row>
     <row r="96" spans="2:20" ht="21" customHeight="1">
-      <c r="B96" s="94" t="s">
+      <c r="B96" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="C96" s="94"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="94"/>
-      <c r="H96" s="94"/>
-      <c r="I96" s="94"/>
-      <c r="J96" s="94"/>
-      <c r="K96" s="94"/>
-      <c r="L96" s="94"/>
-      <c r="M96" s="94"/>
-      <c r="N96" s="94"/>
-      <c r="O96" s="94"/>
-      <c r="P96" s="94"/>
-      <c r="Q96" s="94"/>
-      <c r="R96" s="94"/>
-      <c r="S96" s="94"/>
-      <c r="T96" s="94"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="90"/>
+      <c r="E96" s="90"/>
+      <c r="F96" s="90"/>
+      <c r="G96" s="90"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="90"/>
+      <c r="J96" s="90"/>
+      <c r="K96" s="90"/>
+      <c r="L96" s="90"/>
+      <c r="M96" s="90"/>
+      <c r="N96" s="90"/>
+      <c r="O96" s="90"/>
+      <c r="P96" s="90"/>
+      <c r="Q96" s="90"/>
+      <c r="R96" s="90"/>
+      <c r="S96" s="90"/>
+      <c r="T96" s="90"/>
     </row>
     <row r="97" spans="2:20" ht="18" customHeight="1">
-      <c r="B97" s="94"/>
-      <c r="C97" s="94"/>
-      <c r="D97" s="94"/>
-      <c r="E97" s="94"/>
-      <c r="F97" s="94"/>
-      <c r="G97" s="94"/>
-      <c r="H97" s="94"/>
-      <c r="I97" s="94"/>
-      <c r="J97" s="94"/>
-      <c r="K97" s="94"/>
-      <c r="L97" s="94"/>
-      <c r="M97" s="94"/>
-      <c r="N97" s="94"/>
-      <c r="O97" s="94"/>
-      <c r="P97" s="94"/>
-      <c r="Q97" s="94"/>
-      <c r="R97" s="94"/>
-      <c r="S97" s="94"/>
-      <c r="T97" s="94"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="90"/>
+      <c r="F97" s="90"/>
+      <c r="G97" s="90"/>
+      <c r="H97" s="90"/>
+      <c r="I97" s="90"/>
+      <c r="J97" s="90"/>
+      <c r="K97" s="90"/>
+      <c r="L97" s="90"/>
+      <c r="M97" s="90"/>
+      <c r="N97" s="90"/>
+      <c r="O97" s="90"/>
+      <c r="P97" s="90"/>
+      <c r="Q97" s="90"/>
+      <c r="R97" s="90"/>
+      <c r="S97" s="90"/>
+      <c r="T97" s="90"/>
     </row>
     <row r="123" spans="2:38" ht="17">
       <c r="B123" s="73" t="s">
@@ -21387,68 +21387,68 @@
       </c>
       <c r="C123" s="73"/>
       <c r="D123" s="73"/>
-      <c r="E123" s="90" t="s">
+      <c r="E123" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="F123" s="90"/>
-      <c r="G123" s="90"/>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90"/>
-      <c r="J123" s="90"/>
-      <c r="K123" s="90"/>
-      <c r="L123" s="90"/>
-      <c r="M123" s="90"/>
-      <c r="N123" s="90"/>
-      <c r="O123" s="90"/>
-      <c r="P123" s="90"/>
-      <c r="Q123" s="90"/>
-      <c r="R123" s="90"/>
-      <c r="S123" s="90"/>
-      <c r="T123" s="90"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="91"/>
+      <c r="K123" s="91"/>
+      <c r="L123" s="91"/>
+      <c r="M123" s="91"/>
+      <c r="N123" s="91"/>
+      <c r="O123" s="91"/>
+      <c r="P123" s="91"/>
+      <c r="Q123" s="91"/>
+      <c r="R123" s="91"/>
+      <c r="S123" s="91"/>
+      <c r="T123" s="91"/>
     </row>
     <row r="124" spans="2:38" ht="27" customHeight="1">
-      <c r="B124" s="94" t="s">
+      <c r="B124" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="C124" s="94"/>
-      <c r="D124" s="94"/>
-      <c r="E124" s="94"/>
-      <c r="F124" s="94"/>
-      <c r="G124" s="94"/>
-      <c r="H124" s="94"/>
-      <c r="I124" s="94"/>
-      <c r="J124" s="94"/>
-      <c r="K124" s="94"/>
-      <c r="L124" s="94"/>
-      <c r="M124" s="94"/>
-      <c r="N124" s="94"/>
-      <c r="O124" s="94"/>
-      <c r="P124" s="94"/>
-      <c r="Q124" s="94"/>
-      <c r="R124" s="94"/>
-      <c r="S124" s="94"/>
-      <c r="T124" s="94"/>
+      <c r="C124" s="90"/>
+      <c r="D124" s="90"/>
+      <c r="E124" s="90"/>
+      <c r="F124" s="90"/>
+      <c r="G124" s="90"/>
+      <c r="H124" s="90"/>
+      <c r="I124" s="90"/>
+      <c r="J124" s="90"/>
+      <c r="K124" s="90"/>
+      <c r="L124" s="90"/>
+      <c r="M124" s="90"/>
+      <c r="N124" s="90"/>
+      <c r="O124" s="90"/>
+      <c r="P124" s="90"/>
+      <c r="Q124" s="90"/>
+      <c r="R124" s="90"/>
+      <c r="S124" s="90"/>
+      <c r="T124" s="90"/>
     </row>
     <row r="125" spans="2:38" ht="32" customHeight="1">
-      <c r="B125" s="94"/>
-      <c r="C125" s="94"/>
-      <c r="D125" s="94"/>
-      <c r="E125" s="94"/>
-      <c r="F125" s="94"/>
-      <c r="G125" s="94"/>
-      <c r="H125" s="94"/>
-      <c r="I125" s="94"/>
-      <c r="J125" s="94"/>
-      <c r="K125" s="94"/>
-      <c r="L125" s="94"/>
-      <c r="M125" s="94"/>
-      <c r="N125" s="94"/>
-      <c r="O125" s="94"/>
-      <c r="P125" s="94"/>
-      <c r="Q125" s="94"/>
-      <c r="R125" s="94"/>
-      <c r="S125" s="94"/>
-      <c r="T125" s="94"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="90"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="90"/>
+      <c r="F125" s="90"/>
+      <c r="G125" s="90"/>
+      <c r="H125" s="90"/>
+      <c r="I125" s="90"/>
+      <c r="J125" s="90"/>
+      <c r="K125" s="90"/>
+      <c r="L125" s="90"/>
+      <c r="M125" s="90"/>
+      <c r="N125" s="90"/>
+      <c r="O125" s="90"/>
+      <c r="P125" s="90"/>
+      <c r="Q125" s="90"/>
+      <c r="R125" s="90"/>
+      <c r="S125" s="90"/>
+      <c r="T125" s="90"/>
     </row>
     <row r="128" spans="2:38" ht="16">
       <c r="Z128" s="77"/>
@@ -21695,101 +21695,101 @@
       </c>
       <c r="C151" s="73"/>
       <c r="D151" s="73"/>
-      <c r="E151" s="90" t="s">
+      <c r="E151" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
-      <c r="H151" s="90"/>
-      <c r="I151" s="90"/>
-      <c r="J151" s="90"/>
-      <c r="K151" s="90"/>
-      <c r="L151" s="90"/>
-      <c r="M151" s="90"/>
-      <c r="N151" s="90"/>
-      <c r="O151" s="90"/>
-      <c r="P151" s="90"/>
-      <c r="Q151" s="90"/>
-      <c r="R151" s="90"/>
-      <c r="S151" s="90"/>
-      <c r="T151" s="90"/>
-      <c r="U151" s="90"/>
-      <c r="V151" s="90"/>
-      <c r="W151" s="90"/>
+      <c r="F151" s="91"/>
+      <c r="G151" s="91"/>
+      <c r="H151" s="91"/>
+      <c r="I151" s="91"/>
+      <c r="J151" s="91"/>
+      <c r="K151" s="91"/>
+      <c r="L151" s="91"/>
+      <c r="M151" s="91"/>
+      <c r="N151" s="91"/>
+      <c r="O151" s="91"/>
+      <c r="P151" s="91"/>
+      <c r="Q151" s="91"/>
+      <c r="R151" s="91"/>
+      <c r="S151" s="91"/>
+      <c r="T151" s="91"/>
+      <c r="U151" s="91"/>
+      <c r="V151" s="91"/>
+      <c r="W151" s="91"/>
     </row>
     <row r="152" spans="2:28" ht="17" customHeight="1">
-      <c r="B152" s="94" t="s">
+      <c r="B152" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C152" s="94"/>
-      <c r="D152" s="94"/>
-      <c r="E152" s="94"/>
-      <c r="F152" s="94"/>
-      <c r="G152" s="94"/>
-      <c r="H152" s="94"/>
-      <c r="I152" s="94"/>
-      <c r="J152" s="94"/>
-      <c r="K152" s="94"/>
-      <c r="L152" s="94"/>
-      <c r="M152" s="94"/>
-      <c r="N152" s="94"/>
-      <c r="O152" s="94"/>
-      <c r="P152" s="94"/>
-      <c r="Q152" s="94"/>
-      <c r="R152" s="94"/>
-      <c r="S152" s="94"/>
-      <c r="T152" s="94"/>
-      <c r="U152" s="94"/>
-      <c r="V152" s="94"/>
-      <c r="W152" s="94"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="90"/>
+      <c r="H152" s="90"/>
+      <c r="I152" s="90"/>
+      <c r="J152" s="90"/>
+      <c r="K152" s="90"/>
+      <c r="L152" s="90"/>
+      <c r="M152" s="90"/>
+      <c r="N152" s="90"/>
+      <c r="O152" s="90"/>
+      <c r="P152" s="90"/>
+      <c r="Q152" s="90"/>
+      <c r="R152" s="90"/>
+      <c r="S152" s="90"/>
+      <c r="T152" s="90"/>
+      <c r="U152" s="90"/>
+      <c r="V152" s="90"/>
+      <c r="W152" s="90"/>
     </row>
     <row r="153" spans="2:28" ht="17" customHeight="1">
-      <c r="B153" s="94"/>
-      <c r="C153" s="94"/>
-      <c r="D153" s="94"/>
-      <c r="E153" s="94"/>
-      <c r="F153" s="94"/>
-      <c r="G153" s="94"/>
-      <c r="H153" s="94"/>
-      <c r="I153" s="94"/>
-      <c r="J153" s="94"/>
-      <c r="K153" s="94"/>
-      <c r="L153" s="94"/>
-      <c r="M153" s="94"/>
-      <c r="N153" s="94"/>
-      <c r="O153" s="94"/>
-      <c r="P153" s="94"/>
-      <c r="Q153" s="94"/>
-      <c r="R153" s="94"/>
-      <c r="S153" s="94"/>
-      <c r="T153" s="94"/>
-      <c r="U153" s="94"/>
-      <c r="V153" s="94"/>
-      <c r="W153" s="94"/>
+      <c r="B153" s="90"/>
+      <c r="C153" s="90"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="90"/>
+      <c r="J153" s="90"/>
+      <c r="K153" s="90"/>
+      <c r="L153" s="90"/>
+      <c r="M153" s="90"/>
+      <c r="N153" s="90"/>
+      <c r="O153" s="90"/>
+      <c r="P153" s="90"/>
+      <c r="Q153" s="90"/>
+      <c r="R153" s="90"/>
+      <c r="S153" s="90"/>
+      <c r="T153" s="90"/>
+      <c r="U153" s="90"/>
+      <c r="V153" s="90"/>
+      <c r="W153" s="90"/>
     </row>
     <row r="154" spans="2:28" ht="17" customHeight="1">
-      <c r="B154" s="94"/>
-      <c r="C154" s="94"/>
-      <c r="D154" s="94"/>
-      <c r="E154" s="94"/>
-      <c r="F154" s="94"/>
-      <c r="G154" s="94"/>
-      <c r="H154" s="94"/>
-      <c r="I154" s="94"/>
-      <c r="J154" s="94"/>
-      <c r="K154" s="94"/>
-      <c r="L154" s="94"/>
-      <c r="M154" s="94"/>
-      <c r="N154" s="94"/>
-      <c r="O154" s="94"/>
-      <c r="P154" s="94"/>
-      <c r="Q154" s="94"/>
-      <c r="R154" s="94"/>
-      <c r="S154" s="94"/>
-      <c r="T154" s="94"/>
-      <c r="U154" s="94"/>
-      <c r="V154" s="94"/>
-      <c r="W154" s="94"/>
+      <c r="B154" s="90"/>
+      <c r="C154" s="90"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="90"/>
+      <c r="I154" s="90"/>
+      <c r="J154" s="90"/>
+      <c r="K154" s="90"/>
+      <c r="L154" s="90"/>
+      <c r="M154" s="90"/>
+      <c r="N154" s="90"/>
+      <c r="O154" s="90"/>
+      <c r="P154" s="90"/>
+      <c r="Q154" s="90"/>
+      <c r="R154" s="90"/>
+      <c r="S154" s="90"/>
+      <c r="T154" s="90"/>
+      <c r="U154" s="90"/>
+      <c r="V154" s="90"/>
+      <c r="W154" s="90"/>
     </row>
     <row r="179" spans="2:23" ht="17">
       <c r="B179" s="73" t="s">
@@ -21797,125 +21797,125 @@
       </c>
       <c r="C179" s="73"/>
       <c r="D179" s="73"/>
-      <c r="E179" s="90" t="s">
+      <c r="E179" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="F179" s="90"/>
-      <c r="G179" s="90"/>
-      <c r="H179" s="90"/>
-      <c r="I179" s="90"/>
-      <c r="J179" s="90"/>
-      <c r="K179" s="90"/>
-      <c r="L179" s="90"/>
-      <c r="M179" s="90"/>
-      <c r="N179" s="90"/>
-      <c r="O179" s="90"/>
-      <c r="P179" s="90"/>
-      <c r="Q179" s="90"/>
-      <c r="R179" s="90"/>
-      <c r="S179" s="90"/>
-      <c r="T179" s="90"/>
-      <c r="U179" s="90"/>
-      <c r="V179" s="90"/>
-      <c r="W179" s="90"/>
+      <c r="F179" s="91"/>
+      <c r="G179" s="91"/>
+      <c r="H179" s="91"/>
+      <c r="I179" s="91"/>
+      <c r="J179" s="91"/>
+      <c r="K179" s="91"/>
+      <c r="L179" s="91"/>
+      <c r="M179" s="91"/>
+      <c r="N179" s="91"/>
+      <c r="O179" s="91"/>
+      <c r="P179" s="91"/>
+      <c r="Q179" s="91"/>
+      <c r="R179" s="91"/>
+      <c r="S179" s="91"/>
+      <c r="T179" s="91"/>
+      <c r="U179" s="91"/>
+      <c r="V179" s="91"/>
+      <c r="W179" s="91"/>
     </row>
     <row r="180" spans="2:23" ht="17" customHeight="1">
-      <c r="B180" s="94" t="s">
+      <c r="B180" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="C180" s="94"/>
-      <c r="D180" s="94"/>
-      <c r="E180" s="94"/>
-      <c r="F180" s="94"/>
-      <c r="G180" s="94"/>
-      <c r="H180" s="94"/>
-      <c r="I180" s="94"/>
-      <c r="J180" s="94"/>
-      <c r="K180" s="94"/>
-      <c r="L180" s="94"/>
-      <c r="M180" s="94"/>
-      <c r="N180" s="94"/>
-      <c r="O180" s="94"/>
-      <c r="P180" s="94"/>
-      <c r="Q180" s="94"/>
-      <c r="R180" s="94"/>
-      <c r="S180" s="94"/>
-      <c r="T180" s="94"/>
-      <c r="U180" s="94"/>
-      <c r="V180" s="94"/>
-      <c r="W180" s="94"/>
+      <c r="C180" s="90"/>
+      <c r="D180" s="90"/>
+      <c r="E180" s="90"/>
+      <c r="F180" s="90"/>
+      <c r="G180" s="90"/>
+      <c r="H180" s="90"/>
+      <c r="I180" s="90"/>
+      <c r="J180" s="90"/>
+      <c r="K180" s="90"/>
+      <c r="L180" s="90"/>
+      <c r="M180" s="90"/>
+      <c r="N180" s="90"/>
+      <c r="O180" s="90"/>
+      <c r="P180" s="90"/>
+      <c r="Q180" s="90"/>
+      <c r="R180" s="90"/>
+      <c r="S180" s="90"/>
+      <c r="T180" s="90"/>
+      <c r="U180" s="90"/>
+      <c r="V180" s="90"/>
+      <c r="W180" s="90"/>
     </row>
     <row r="181" spans="2:23">
-      <c r="B181" s="94"/>
-      <c r="C181" s="94"/>
-      <c r="D181" s="94"/>
-      <c r="E181" s="94"/>
-      <c r="F181" s="94"/>
-      <c r="G181" s="94"/>
-      <c r="H181" s="94"/>
-      <c r="I181" s="94"/>
-      <c r="J181" s="94"/>
-      <c r="K181" s="94"/>
-      <c r="L181" s="94"/>
-      <c r="M181" s="94"/>
-      <c r="N181" s="94"/>
-      <c r="O181" s="94"/>
-      <c r="P181" s="94"/>
-      <c r="Q181" s="94"/>
-      <c r="R181" s="94"/>
-      <c r="S181" s="94"/>
-      <c r="T181" s="94"/>
-      <c r="U181" s="94"/>
-      <c r="V181" s="94"/>
-      <c r="W181" s="94"/>
+      <c r="B181" s="90"/>
+      <c r="C181" s="90"/>
+      <c r="D181" s="90"/>
+      <c r="E181" s="90"/>
+      <c r="F181" s="90"/>
+      <c r="G181" s="90"/>
+      <c r="H181" s="90"/>
+      <c r="I181" s="90"/>
+      <c r="J181" s="90"/>
+      <c r="K181" s="90"/>
+      <c r="L181" s="90"/>
+      <c r="M181" s="90"/>
+      <c r="N181" s="90"/>
+      <c r="O181" s="90"/>
+      <c r="P181" s="90"/>
+      <c r="Q181" s="90"/>
+      <c r="R181" s="90"/>
+      <c r="S181" s="90"/>
+      <c r="T181" s="90"/>
+      <c r="U181" s="90"/>
+      <c r="V181" s="90"/>
+      <c r="W181" s="90"/>
     </row>
     <row r="182" spans="2:23">
-      <c r="B182" s="94"/>
-      <c r="C182" s="94"/>
-      <c r="D182" s="94"/>
-      <c r="E182" s="94"/>
-      <c r="F182" s="94"/>
-      <c r="G182" s="94"/>
-      <c r="H182" s="94"/>
-      <c r="I182" s="94"/>
-      <c r="J182" s="94"/>
-      <c r="K182" s="94"/>
-      <c r="L182" s="94"/>
-      <c r="M182" s="94"/>
-      <c r="N182" s="94"/>
-      <c r="O182" s="94"/>
-      <c r="P182" s="94"/>
-      <c r="Q182" s="94"/>
-      <c r="R182" s="94"/>
-      <c r="S182" s="94"/>
-      <c r="T182" s="94"/>
-      <c r="U182" s="94"/>
-      <c r="V182" s="94"/>
-      <c r="W182" s="94"/>
+      <c r="B182" s="90"/>
+      <c r="C182" s="90"/>
+      <c r="D182" s="90"/>
+      <c r="E182" s="90"/>
+      <c r="F182" s="90"/>
+      <c r="G182" s="90"/>
+      <c r="H182" s="90"/>
+      <c r="I182" s="90"/>
+      <c r="J182" s="90"/>
+      <c r="K182" s="90"/>
+      <c r="L182" s="90"/>
+      <c r="M182" s="90"/>
+      <c r="N182" s="90"/>
+      <c r="O182" s="90"/>
+      <c r="P182" s="90"/>
+      <c r="Q182" s="90"/>
+      <c r="R182" s="90"/>
+      <c r="S182" s="90"/>
+      <c r="T182" s="90"/>
+      <c r="U182" s="90"/>
+      <c r="V182" s="90"/>
+      <c r="W182" s="90"/>
     </row>
     <row r="183" spans="2:23">
-      <c r="B183" s="94"/>
-      <c r="C183" s="94"/>
-      <c r="D183" s="94"/>
-      <c r="E183" s="94"/>
-      <c r="F183" s="94"/>
-      <c r="G183" s="94"/>
-      <c r="H183" s="94"/>
-      <c r="I183" s="94"/>
-      <c r="J183" s="94"/>
-      <c r="K183" s="94"/>
-      <c r="L183" s="94"/>
-      <c r="M183" s="94"/>
-      <c r="N183" s="94"/>
-      <c r="O183" s="94"/>
-      <c r="P183" s="94"/>
-      <c r="Q183" s="94"/>
-      <c r="R183" s="94"/>
-      <c r="S183" s="94"/>
-      <c r="T183" s="94"/>
-      <c r="U183" s="94"/>
-      <c r="V183" s="94"/>
-      <c r="W183" s="94"/>
+      <c r="B183" s="90"/>
+      <c r="C183" s="90"/>
+      <c r="D183" s="90"/>
+      <c r="E183" s="90"/>
+      <c r="F183" s="90"/>
+      <c r="G183" s="90"/>
+      <c r="H183" s="90"/>
+      <c r="I183" s="90"/>
+      <c r="J183" s="90"/>
+      <c r="K183" s="90"/>
+      <c r="L183" s="90"/>
+      <c r="M183" s="90"/>
+      <c r="N183" s="90"/>
+      <c r="O183" s="90"/>
+      <c r="P183" s="90"/>
+      <c r="Q183" s="90"/>
+      <c r="R183" s="90"/>
+      <c r="S183" s="90"/>
+      <c r="T183" s="90"/>
+      <c r="U183" s="90"/>
+      <c r="V183" s="90"/>
+      <c r="W183" s="90"/>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" s="83"/>
@@ -21930,101 +21930,101 @@
       </c>
       <c r="C220" s="73"/>
       <c r="D220" s="73"/>
-      <c r="E220" s="90" t="s">
+      <c r="E220" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="F220" s="90"/>
-      <c r="G220" s="90"/>
-      <c r="H220" s="90"/>
-      <c r="I220" s="90"/>
-      <c r="J220" s="90"/>
-      <c r="K220" s="90"/>
-      <c r="L220" s="90"/>
-      <c r="M220" s="90"/>
-      <c r="N220" s="90"/>
-      <c r="O220" s="90"/>
-      <c r="P220" s="90"/>
-      <c r="Q220" s="90"/>
-      <c r="R220" s="90"/>
-      <c r="S220" s="90"/>
-      <c r="T220" s="90"/>
-      <c r="U220" s="90"/>
-      <c r="V220" s="90"/>
-      <c r="W220" s="90"/>
+      <c r="F220" s="91"/>
+      <c r="G220" s="91"/>
+      <c r="H220" s="91"/>
+      <c r="I220" s="91"/>
+      <c r="J220" s="91"/>
+      <c r="K220" s="91"/>
+      <c r="L220" s="91"/>
+      <c r="M220" s="91"/>
+      <c r="N220" s="91"/>
+      <c r="O220" s="91"/>
+      <c r="P220" s="91"/>
+      <c r="Q220" s="91"/>
+      <c r="R220" s="91"/>
+      <c r="S220" s="91"/>
+      <c r="T220" s="91"/>
+      <c r="U220" s="91"/>
+      <c r="V220" s="91"/>
+      <c r="W220" s="91"/>
     </row>
     <row r="221" spans="2:23">
-      <c r="B221" s="94" t="s">
+      <c r="B221" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C221" s="94"/>
-      <c r="D221" s="94"/>
-      <c r="E221" s="94"/>
-      <c r="F221" s="94"/>
-      <c r="G221" s="94"/>
-      <c r="H221" s="94"/>
-      <c r="I221" s="94"/>
-      <c r="J221" s="94"/>
-      <c r="K221" s="94"/>
-      <c r="L221" s="94"/>
-      <c r="M221" s="94"/>
-      <c r="N221" s="94"/>
-      <c r="O221" s="94"/>
-      <c r="P221" s="94"/>
-      <c r="Q221" s="94"/>
-      <c r="R221" s="94"/>
-      <c r="S221" s="94"/>
-      <c r="T221" s="94"/>
-      <c r="U221" s="94"/>
-      <c r="V221" s="94"/>
-      <c r="W221" s="94"/>
+      <c r="C221" s="90"/>
+      <c r="D221" s="90"/>
+      <c r="E221" s="90"/>
+      <c r="F221" s="90"/>
+      <c r="G221" s="90"/>
+      <c r="H221" s="90"/>
+      <c r="I221" s="90"/>
+      <c r="J221" s="90"/>
+      <c r="K221" s="90"/>
+      <c r="L221" s="90"/>
+      <c r="M221" s="90"/>
+      <c r="N221" s="90"/>
+      <c r="O221" s="90"/>
+      <c r="P221" s="90"/>
+      <c r="Q221" s="90"/>
+      <c r="R221" s="90"/>
+      <c r="S221" s="90"/>
+      <c r="T221" s="90"/>
+      <c r="U221" s="90"/>
+      <c r="V221" s="90"/>
+      <c r="W221" s="90"/>
     </row>
     <row r="222" spans="2:23">
-      <c r="B222" s="94"/>
-      <c r="C222" s="94"/>
-      <c r="D222" s="94"/>
-      <c r="E222" s="94"/>
-      <c r="F222" s="94"/>
-      <c r="G222" s="94"/>
-      <c r="H222" s="94"/>
-      <c r="I222" s="94"/>
-      <c r="J222" s="94"/>
-      <c r="K222" s="94"/>
-      <c r="L222" s="94"/>
-      <c r="M222" s="94"/>
-      <c r="N222" s="94"/>
-      <c r="O222" s="94"/>
-      <c r="P222" s="94"/>
-      <c r="Q222" s="94"/>
-      <c r="R222" s="94"/>
-      <c r="S222" s="94"/>
-      <c r="T222" s="94"/>
-      <c r="U222" s="94"/>
-      <c r="V222" s="94"/>
-      <c r="W222" s="94"/>
+      <c r="B222" s="90"/>
+      <c r="C222" s="90"/>
+      <c r="D222" s="90"/>
+      <c r="E222" s="90"/>
+      <c r="F222" s="90"/>
+      <c r="G222" s="90"/>
+      <c r="H222" s="90"/>
+      <c r="I222" s="90"/>
+      <c r="J222" s="90"/>
+      <c r="K222" s="90"/>
+      <c r="L222" s="90"/>
+      <c r="M222" s="90"/>
+      <c r="N222" s="90"/>
+      <c r="O222" s="90"/>
+      <c r="P222" s="90"/>
+      <c r="Q222" s="90"/>
+      <c r="R222" s="90"/>
+      <c r="S222" s="90"/>
+      <c r="T222" s="90"/>
+      <c r="U222" s="90"/>
+      <c r="V222" s="90"/>
+      <c r="W222" s="90"/>
     </row>
     <row r="223" spans="2:23">
-      <c r="B223" s="94"/>
-      <c r="C223" s="94"/>
-      <c r="D223" s="94"/>
-      <c r="E223" s="94"/>
-      <c r="F223" s="94"/>
-      <c r="G223" s="94"/>
-      <c r="H223" s="94"/>
-      <c r="I223" s="94"/>
-      <c r="J223" s="94"/>
-      <c r="K223" s="94"/>
-      <c r="L223" s="94"/>
-      <c r="M223" s="94"/>
-      <c r="N223" s="94"/>
-      <c r="O223" s="94"/>
-      <c r="P223" s="94"/>
-      <c r="Q223" s="94"/>
-      <c r="R223" s="94"/>
-      <c r="S223" s="94"/>
-      <c r="T223" s="94"/>
-      <c r="U223" s="94"/>
-      <c r="V223" s="94"/>
-      <c r="W223" s="94"/>
+      <c r="B223" s="90"/>
+      <c r="C223" s="90"/>
+      <c r="D223" s="90"/>
+      <c r="E223" s="90"/>
+      <c r="F223" s="90"/>
+      <c r="G223" s="90"/>
+      <c r="H223" s="90"/>
+      <c r="I223" s="90"/>
+      <c r="J223" s="90"/>
+      <c r="K223" s="90"/>
+      <c r="L223" s="90"/>
+      <c r="M223" s="90"/>
+      <c r="N223" s="90"/>
+      <c r="O223" s="90"/>
+      <c r="P223" s="90"/>
+      <c r="Q223" s="90"/>
+      <c r="R223" s="90"/>
+      <c r="S223" s="90"/>
+      <c r="T223" s="90"/>
+      <c r="U223" s="90"/>
+      <c r="V223" s="90"/>
+      <c r="W223" s="90"/>
     </row>
     <row r="298" spans="1:23" ht="17">
       <c r="B298" s="73" t="s">
@@ -22032,101 +22032,101 @@
       </c>
       <c r="C298" s="73"/>
       <c r="D298" s="73"/>
-      <c r="E298" s="90" t="s">
+      <c r="E298" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F298" s="90"/>
-      <c r="G298" s="90"/>
-      <c r="H298" s="90"/>
-      <c r="I298" s="90"/>
-      <c r="J298" s="90"/>
-      <c r="K298" s="90"/>
-      <c r="L298" s="90"/>
-      <c r="M298" s="90"/>
-      <c r="N298" s="90"/>
-      <c r="O298" s="90"/>
-      <c r="P298" s="90"/>
-      <c r="Q298" s="90"/>
-      <c r="R298" s="90"/>
-      <c r="S298" s="90"/>
-      <c r="T298" s="90"/>
-      <c r="U298" s="90"/>
-      <c r="V298" s="90"/>
-      <c r="W298" s="90"/>
+      <c r="F298" s="91"/>
+      <c r="G298" s="91"/>
+      <c r="H298" s="91"/>
+      <c r="I298" s="91"/>
+      <c r="J298" s="91"/>
+      <c r="K298" s="91"/>
+      <c r="L298" s="91"/>
+      <c r="M298" s="91"/>
+      <c r="N298" s="91"/>
+      <c r="O298" s="91"/>
+      <c r="P298" s="91"/>
+      <c r="Q298" s="91"/>
+      <c r="R298" s="91"/>
+      <c r="S298" s="91"/>
+      <c r="T298" s="91"/>
+      <c r="U298" s="91"/>
+      <c r="V298" s="91"/>
+      <c r="W298" s="91"/>
     </row>
     <row r="299" spans="1:23">
-      <c r="B299" s="94" t="s">
+      <c r="B299" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C299" s="94"/>
-      <c r="D299" s="94"/>
-      <c r="E299" s="94"/>
-      <c r="F299" s="94"/>
-      <c r="G299" s="94"/>
-      <c r="H299" s="94"/>
-      <c r="I299" s="94"/>
-      <c r="J299" s="94"/>
-      <c r="K299" s="94"/>
-      <c r="L299" s="94"/>
-      <c r="M299" s="94"/>
-      <c r="N299" s="94"/>
-      <c r="O299" s="94"/>
-      <c r="P299" s="94"/>
-      <c r="Q299" s="94"/>
-      <c r="R299" s="94"/>
-      <c r="S299" s="94"/>
-      <c r="T299" s="94"/>
-      <c r="U299" s="94"/>
-      <c r="V299" s="94"/>
-      <c r="W299" s="94"/>
+      <c r="C299" s="90"/>
+      <c r="D299" s="90"/>
+      <c r="E299" s="90"/>
+      <c r="F299" s="90"/>
+      <c r="G299" s="90"/>
+      <c r="H299" s="90"/>
+      <c r="I299" s="90"/>
+      <c r="J299" s="90"/>
+      <c r="K299" s="90"/>
+      <c r="L299" s="90"/>
+      <c r="M299" s="90"/>
+      <c r="N299" s="90"/>
+      <c r="O299" s="90"/>
+      <c r="P299" s="90"/>
+      <c r="Q299" s="90"/>
+      <c r="R299" s="90"/>
+      <c r="S299" s="90"/>
+      <c r="T299" s="90"/>
+      <c r="U299" s="90"/>
+      <c r="V299" s="90"/>
+      <c r="W299" s="90"/>
     </row>
     <row r="300" spans="1:23">
-      <c r="B300" s="94"/>
-      <c r="C300" s="94"/>
-      <c r="D300" s="94"/>
-      <c r="E300" s="94"/>
-      <c r="F300" s="94"/>
-      <c r="G300" s="94"/>
-      <c r="H300" s="94"/>
-      <c r="I300" s="94"/>
-      <c r="J300" s="94"/>
-      <c r="K300" s="94"/>
-      <c r="L300" s="94"/>
-      <c r="M300" s="94"/>
-      <c r="N300" s="94"/>
-      <c r="O300" s="94"/>
-      <c r="P300" s="94"/>
-      <c r="Q300" s="94"/>
-      <c r="R300" s="94"/>
-      <c r="S300" s="94"/>
-      <c r="T300" s="94"/>
-      <c r="U300" s="94"/>
-      <c r="V300" s="94"/>
-      <c r="W300" s="94"/>
+      <c r="B300" s="90"/>
+      <c r="C300" s="90"/>
+      <c r="D300" s="90"/>
+      <c r="E300" s="90"/>
+      <c r="F300" s="90"/>
+      <c r="G300" s="90"/>
+      <c r="H300" s="90"/>
+      <c r="I300" s="90"/>
+      <c r="J300" s="90"/>
+      <c r="K300" s="90"/>
+      <c r="L300" s="90"/>
+      <c r="M300" s="90"/>
+      <c r="N300" s="90"/>
+      <c r="O300" s="90"/>
+      <c r="P300" s="90"/>
+      <c r="Q300" s="90"/>
+      <c r="R300" s="90"/>
+      <c r="S300" s="90"/>
+      <c r="T300" s="90"/>
+      <c r="U300" s="90"/>
+      <c r="V300" s="90"/>
+      <c r="W300" s="90"/>
     </row>
     <row r="301" spans="1:23">
-      <c r="B301" s="94"/>
-      <c r="C301" s="94"/>
-      <c r="D301" s="94"/>
-      <c r="E301" s="94"/>
-      <c r="F301" s="94"/>
-      <c r="G301" s="94"/>
-      <c r="H301" s="94"/>
-      <c r="I301" s="94"/>
-      <c r="J301" s="94"/>
-      <c r="K301" s="94"/>
-      <c r="L301" s="94"/>
-      <c r="M301" s="94"/>
-      <c r="N301" s="94"/>
-      <c r="O301" s="94"/>
-      <c r="P301" s="94"/>
-      <c r="Q301" s="94"/>
-      <c r="R301" s="94"/>
-      <c r="S301" s="94"/>
-      <c r="T301" s="94"/>
-      <c r="U301" s="94"/>
-      <c r="V301" s="94"/>
-      <c r="W301" s="94"/>
+      <c r="B301" s="90"/>
+      <c r="C301" s="90"/>
+      <c r="D301" s="90"/>
+      <c r="E301" s="90"/>
+      <c r="F301" s="90"/>
+      <c r="G301" s="90"/>
+      <c r="H301" s="90"/>
+      <c r="I301" s="90"/>
+      <c r="J301" s="90"/>
+      <c r="K301" s="90"/>
+      <c r="L301" s="90"/>
+      <c r="M301" s="90"/>
+      <c r="N301" s="90"/>
+      <c r="O301" s="90"/>
+      <c r="P301" s="90"/>
+      <c r="Q301" s="90"/>
+      <c r="R301" s="90"/>
+      <c r="S301" s="90"/>
+      <c r="T301" s="90"/>
+      <c r="U301" s="90"/>
+      <c r="V301" s="90"/>
+      <c r="W301" s="90"/>
     </row>
     <row r="304" spans="1:23" ht="19">
       <c r="A304" s="74" t="s">
@@ -22240,239 +22240,239 @@
       </c>
       <c r="C345" s="73"/>
       <c r="D345" s="73"/>
-      <c r="E345" s="90" t="s">
+      <c r="E345" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="F345" s="90"/>
-      <c r="G345" s="90"/>
-      <c r="H345" s="90"/>
-      <c r="I345" s="90"/>
-      <c r="J345" s="90"/>
-      <c r="K345" s="90"/>
-      <c r="L345" s="90"/>
-      <c r="M345" s="90"/>
-      <c r="N345" s="90"/>
-      <c r="O345" s="90"/>
-      <c r="P345" s="90"/>
-      <c r="Q345" s="90"/>
-      <c r="R345" s="90"/>
-      <c r="S345" s="90"/>
-      <c r="T345" s="90"/>
-      <c r="U345" s="90"/>
-      <c r="V345" s="90"/>
-      <c r="W345" s="90"/>
+      <c r="F345" s="91"/>
+      <c r="G345" s="91"/>
+      <c r="H345" s="91"/>
+      <c r="I345" s="91"/>
+      <c r="J345" s="91"/>
+      <c r="K345" s="91"/>
+      <c r="L345" s="91"/>
+      <c r="M345" s="91"/>
+      <c r="N345" s="91"/>
+      <c r="O345" s="91"/>
+      <c r="P345" s="91"/>
+      <c r="Q345" s="91"/>
+      <c r="R345" s="91"/>
+      <c r="S345" s="91"/>
+      <c r="T345" s="91"/>
+      <c r="U345" s="91"/>
+      <c r="V345" s="91"/>
+      <c r="W345" s="91"/>
     </row>
     <row r="346" spans="2:23" ht="13" customHeight="1">
-      <c r="B346" s="94" t="s">
+      <c r="B346" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="C346" s="94"/>
-      <c r="D346" s="94"/>
-      <c r="E346" s="94"/>
-      <c r="F346" s="94"/>
-      <c r="G346" s="94"/>
-      <c r="H346" s="94"/>
-      <c r="I346" s="94"/>
-      <c r="J346" s="94"/>
-      <c r="K346" s="94"/>
-      <c r="L346" s="94"/>
-      <c r="M346" s="94"/>
-      <c r="N346" s="94"/>
-      <c r="O346" s="94"/>
-      <c r="P346" s="94"/>
-      <c r="Q346" s="94"/>
-      <c r="R346" s="94"/>
-      <c r="S346" s="94"/>
-      <c r="T346" s="94"/>
-      <c r="U346" s="94"/>
-      <c r="V346" s="94"/>
-      <c r="W346" s="94"/>
+      <c r="C346" s="90"/>
+      <c r="D346" s="90"/>
+      <c r="E346" s="90"/>
+      <c r="F346" s="90"/>
+      <c r="G346" s="90"/>
+      <c r="H346" s="90"/>
+      <c r="I346" s="90"/>
+      <c r="J346" s="90"/>
+      <c r="K346" s="90"/>
+      <c r="L346" s="90"/>
+      <c r="M346" s="90"/>
+      <c r="N346" s="90"/>
+      <c r="O346" s="90"/>
+      <c r="P346" s="90"/>
+      <c r="Q346" s="90"/>
+      <c r="R346" s="90"/>
+      <c r="S346" s="90"/>
+      <c r="T346" s="90"/>
+      <c r="U346" s="90"/>
+      <c r="V346" s="90"/>
+      <c r="W346" s="90"/>
     </row>
     <row r="347" spans="2:23" ht="17" customHeight="1">
-      <c r="B347" s="94"/>
-      <c r="C347" s="94"/>
-      <c r="D347" s="94"/>
-      <c r="E347" s="94"/>
-      <c r="F347" s="94"/>
-      <c r="G347" s="94"/>
-      <c r="H347" s="94"/>
-      <c r="I347" s="94"/>
-      <c r="J347" s="94"/>
-      <c r="K347" s="94"/>
-      <c r="L347" s="94"/>
-      <c r="M347" s="94"/>
-      <c r="N347" s="94"/>
-      <c r="O347" s="94"/>
-      <c r="P347" s="94"/>
-      <c r="Q347" s="94"/>
-      <c r="R347" s="94"/>
-      <c r="S347" s="94"/>
-      <c r="T347" s="94"/>
-      <c r="U347" s="94"/>
-      <c r="V347" s="94"/>
-      <c r="W347" s="94"/>
+      <c r="B347" s="90"/>
+      <c r="C347" s="90"/>
+      <c r="D347" s="90"/>
+      <c r="E347" s="90"/>
+      <c r="F347" s="90"/>
+      <c r="G347" s="90"/>
+      <c r="H347" s="90"/>
+      <c r="I347" s="90"/>
+      <c r="J347" s="90"/>
+      <c r="K347" s="90"/>
+      <c r="L347" s="90"/>
+      <c r="M347" s="90"/>
+      <c r="N347" s="90"/>
+      <c r="O347" s="90"/>
+      <c r="P347" s="90"/>
+      <c r="Q347" s="90"/>
+      <c r="R347" s="90"/>
+      <c r="S347" s="90"/>
+      <c r="T347" s="90"/>
+      <c r="U347" s="90"/>
+      <c r="V347" s="90"/>
+      <c r="W347" s="90"/>
     </row>
     <row r="348" spans="2:23" ht="13" customHeight="1">
-      <c r="B348" s="94"/>
-      <c r="C348" s="94"/>
-      <c r="D348" s="94"/>
-      <c r="E348" s="94"/>
-      <c r="F348" s="94"/>
-      <c r="G348" s="94"/>
-      <c r="H348" s="94"/>
-      <c r="I348" s="94"/>
-      <c r="J348" s="94"/>
-      <c r="K348" s="94"/>
-      <c r="L348" s="94"/>
-      <c r="M348" s="94"/>
-      <c r="N348" s="94"/>
-      <c r="O348" s="94"/>
-      <c r="P348" s="94"/>
-      <c r="Q348" s="94"/>
-      <c r="R348" s="94"/>
-      <c r="S348" s="94"/>
-      <c r="T348" s="94"/>
-      <c r="U348" s="94"/>
-      <c r="V348" s="94"/>
-      <c r="W348" s="94"/>
+      <c r="B348" s="90"/>
+      <c r="C348" s="90"/>
+      <c r="D348" s="90"/>
+      <c r="E348" s="90"/>
+      <c r="F348" s="90"/>
+      <c r="G348" s="90"/>
+      <c r="H348" s="90"/>
+      <c r="I348" s="90"/>
+      <c r="J348" s="90"/>
+      <c r="K348" s="90"/>
+      <c r="L348" s="90"/>
+      <c r="M348" s="90"/>
+      <c r="N348" s="90"/>
+      <c r="O348" s="90"/>
+      <c r="P348" s="90"/>
+      <c r="Q348" s="90"/>
+      <c r="R348" s="90"/>
+      <c r="S348" s="90"/>
+      <c r="T348" s="90"/>
+      <c r="U348" s="90"/>
+      <c r="V348" s="90"/>
+      <c r="W348" s="90"/>
     </row>
     <row r="394" spans="2:23">
-      <c r="B394" s="94" t="s">
+      <c r="B394" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="C394" s="94"/>
-      <c r="D394" s="94"/>
-      <c r="E394" s="94"/>
-      <c r="F394" s="94"/>
-      <c r="G394" s="94"/>
-      <c r="H394" s="94"/>
-      <c r="I394" s="94"/>
-      <c r="J394" s="94"/>
-      <c r="K394" s="94"/>
-      <c r="L394" s="94"/>
-      <c r="M394" s="94"/>
-      <c r="N394" s="94"/>
-      <c r="O394" s="94"/>
-      <c r="P394" s="94"/>
-      <c r="Q394" s="94"/>
-      <c r="R394" s="94"/>
-      <c r="S394" s="94"/>
-      <c r="T394" s="94"/>
-      <c r="U394" s="94"/>
-      <c r="V394" s="94"/>
-      <c r="W394" s="94"/>
+      <c r="C394" s="90"/>
+      <c r="D394" s="90"/>
+      <c r="E394" s="90"/>
+      <c r="F394" s="90"/>
+      <c r="G394" s="90"/>
+      <c r="H394" s="90"/>
+      <c r="I394" s="90"/>
+      <c r="J394" s="90"/>
+      <c r="K394" s="90"/>
+      <c r="L394" s="90"/>
+      <c r="M394" s="90"/>
+      <c r="N394" s="90"/>
+      <c r="O394" s="90"/>
+      <c r="P394" s="90"/>
+      <c r="Q394" s="90"/>
+      <c r="R394" s="90"/>
+      <c r="S394" s="90"/>
+      <c r="T394" s="90"/>
+      <c r="U394" s="90"/>
+      <c r="V394" s="90"/>
+      <c r="W394" s="90"/>
     </row>
     <row r="395" spans="2:23">
-      <c r="B395" s="94"/>
-      <c r="C395" s="94"/>
-      <c r="D395" s="94"/>
-      <c r="E395" s="94"/>
-      <c r="F395" s="94"/>
-      <c r="G395" s="94"/>
-      <c r="H395" s="94"/>
-      <c r="I395" s="94"/>
-      <c r="J395" s="94"/>
-      <c r="K395" s="94"/>
-      <c r="L395" s="94"/>
-      <c r="M395" s="94"/>
-      <c r="N395" s="94"/>
-      <c r="O395" s="94"/>
-      <c r="P395" s="94"/>
-      <c r="Q395" s="94"/>
-      <c r="R395" s="94"/>
-      <c r="S395" s="94"/>
-      <c r="T395" s="94"/>
-      <c r="U395" s="94"/>
-      <c r="V395" s="94"/>
-      <c r="W395" s="94"/>
+      <c r="B395" s="90"/>
+      <c r="C395" s="90"/>
+      <c r="D395" s="90"/>
+      <c r="E395" s="90"/>
+      <c r="F395" s="90"/>
+      <c r="G395" s="90"/>
+      <c r="H395" s="90"/>
+      <c r="I395" s="90"/>
+      <c r="J395" s="90"/>
+      <c r="K395" s="90"/>
+      <c r="L395" s="90"/>
+      <c r="M395" s="90"/>
+      <c r="N395" s="90"/>
+      <c r="O395" s="90"/>
+      <c r="P395" s="90"/>
+      <c r="Q395" s="90"/>
+      <c r="R395" s="90"/>
+      <c r="S395" s="90"/>
+      <c r="T395" s="90"/>
+      <c r="U395" s="90"/>
+      <c r="V395" s="90"/>
+      <c r="W395" s="90"/>
     </row>
     <row r="396" spans="2:23">
-      <c r="B396" s="94"/>
-      <c r="C396" s="94"/>
-      <c r="D396" s="94"/>
-      <c r="E396" s="94"/>
-      <c r="F396" s="94"/>
-      <c r="G396" s="94"/>
-      <c r="H396" s="94"/>
-      <c r="I396" s="94"/>
-      <c r="J396" s="94"/>
-      <c r="K396" s="94"/>
-      <c r="L396" s="94"/>
-      <c r="M396" s="94"/>
-      <c r="N396" s="94"/>
-      <c r="O396" s="94"/>
-      <c r="P396" s="94"/>
-      <c r="Q396" s="94"/>
-      <c r="R396" s="94"/>
-      <c r="S396" s="94"/>
-      <c r="T396" s="94"/>
-      <c r="U396" s="94"/>
-      <c r="V396" s="94"/>
-      <c r="W396" s="94"/>
+      <c r="B396" s="90"/>
+      <c r="C396" s="90"/>
+      <c r="D396" s="90"/>
+      <c r="E396" s="90"/>
+      <c r="F396" s="90"/>
+      <c r="G396" s="90"/>
+      <c r="H396" s="90"/>
+      <c r="I396" s="90"/>
+      <c r="J396" s="90"/>
+      <c r="K396" s="90"/>
+      <c r="L396" s="90"/>
+      <c r="M396" s="90"/>
+      <c r="N396" s="90"/>
+      <c r="O396" s="90"/>
+      <c r="P396" s="90"/>
+      <c r="Q396" s="90"/>
+      <c r="R396" s="90"/>
+      <c r="S396" s="90"/>
+      <c r="T396" s="90"/>
+      <c r="U396" s="90"/>
+      <c r="V396" s="90"/>
+      <c r="W396" s="90"/>
     </row>
     <row r="422" spans="2:23">
-      <c r="B422" s="94" t="s">
+      <c r="B422" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="C422" s="94"/>
-      <c r="D422" s="94"/>
-      <c r="E422" s="94"/>
-      <c r="F422" s="94"/>
-      <c r="G422" s="94"/>
-      <c r="H422" s="94"/>
-      <c r="I422" s="94"/>
-      <c r="J422" s="94"/>
-      <c r="K422" s="94"/>
-      <c r="L422" s="94"/>
-      <c r="M422" s="94"/>
-      <c r="N422" s="94"/>
-      <c r="O422" s="94"/>
-      <c r="P422" s="94"/>
-      <c r="Q422" s="94"/>
-      <c r="R422" s="94"/>
-      <c r="S422" s="94"/>
-      <c r="T422" s="94"/>
-      <c r="U422" s="94"/>
-      <c r="V422" s="94"/>
-      <c r="W422" s="94"/>
+      <c r="C422" s="90"/>
+      <c r="D422" s="90"/>
+      <c r="E422" s="90"/>
+      <c r="F422" s="90"/>
+      <c r="G422" s="90"/>
+      <c r="H422" s="90"/>
+      <c r="I422" s="90"/>
+      <c r="J422" s="90"/>
+      <c r="K422" s="90"/>
+      <c r="L422" s="90"/>
+      <c r="M422" s="90"/>
+      <c r="N422" s="90"/>
+      <c r="O422" s="90"/>
+      <c r="P422" s="90"/>
+      <c r="Q422" s="90"/>
+      <c r="R422" s="90"/>
+      <c r="S422" s="90"/>
+      <c r="T422" s="90"/>
+      <c r="U422" s="90"/>
+      <c r="V422" s="90"/>
+      <c r="W422" s="90"/>
     </row>
     <row r="423" spans="2:23">
-      <c r="B423" s="94"/>
-      <c r="C423" s="94"/>
-      <c r="D423" s="94"/>
-      <c r="E423" s="94"/>
-      <c r="F423" s="94"/>
-      <c r="G423" s="94"/>
-      <c r="H423" s="94"/>
-      <c r="I423" s="94"/>
-      <c r="J423" s="94"/>
-      <c r="K423" s="94"/>
-      <c r="L423" s="94"/>
-      <c r="M423" s="94"/>
-      <c r="N423" s="94"/>
-      <c r="O423" s="94"/>
-      <c r="P423" s="94"/>
-      <c r="Q423" s="94"/>
-      <c r="R423" s="94"/>
-      <c r="S423" s="94"/>
-      <c r="T423" s="94"/>
-      <c r="U423" s="94"/>
-      <c r="V423" s="94"/>
-      <c r="W423" s="94"/>
+      <c r="B423" s="90"/>
+      <c r="C423" s="90"/>
+      <c r="D423" s="90"/>
+      <c r="E423" s="90"/>
+      <c r="F423" s="90"/>
+      <c r="G423" s="90"/>
+      <c r="H423" s="90"/>
+      <c r="I423" s="90"/>
+      <c r="J423" s="90"/>
+      <c r="K423" s="90"/>
+      <c r="L423" s="90"/>
+      <c r="M423" s="90"/>
+      <c r="N423" s="90"/>
+      <c r="O423" s="90"/>
+      <c r="P423" s="90"/>
+      <c r="Q423" s="90"/>
+      <c r="R423" s="90"/>
+      <c r="S423" s="90"/>
+      <c r="T423" s="90"/>
+      <c r="U423" s="90"/>
+      <c r="V423" s="90"/>
+      <c r="W423" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B299:W301"/>
-    <mergeCell ref="B346:W348"/>
-    <mergeCell ref="B394:W396"/>
-    <mergeCell ref="B422:W423"/>
-    <mergeCell ref="E298:W298"/>
-    <mergeCell ref="E345:W345"/>
-    <mergeCell ref="B7:T8"/>
-    <mergeCell ref="B34:T35"/>
-    <mergeCell ref="B62:T63"/>
-    <mergeCell ref="B96:T97"/>
-    <mergeCell ref="B124:T125"/>
+    <mergeCell ref="E6:T6"/>
+    <mergeCell ref="E61:T61"/>
+    <mergeCell ref="D33:T33"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B221:W223"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E220:W220"/>
     <mergeCell ref="B152:W154"/>
     <mergeCell ref="B180:W183"/>
     <mergeCell ref="E69:F69"/>
@@ -22480,18 +22480,18 @@
     <mergeCell ref="E123:T123"/>
     <mergeCell ref="E151:W151"/>
     <mergeCell ref="E179:W179"/>
+    <mergeCell ref="B7:T8"/>
+    <mergeCell ref="B34:T35"/>
+    <mergeCell ref="B62:T63"/>
+    <mergeCell ref="B96:T97"/>
+    <mergeCell ref="B124:T125"/>
     <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B221:W223"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E220:W220"/>
-    <mergeCell ref="E6:T6"/>
-    <mergeCell ref="E61:T61"/>
-    <mergeCell ref="D33:T33"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B299:W301"/>
+    <mergeCell ref="B346:W348"/>
+    <mergeCell ref="B394:W396"/>
+    <mergeCell ref="B422:W423"/>
+    <mergeCell ref="E298:W298"/>
+    <mergeCell ref="E345:W345"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q1" location="'Title Page'!A1" display="Title page" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -22506,8 +22506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22538,10 +22538,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="36" customHeight="1">
+    <row r="8" spans="2:16" ht="48" customHeight="1">
       <c r="B8" s="86"/>
       <c r="C8" s="88" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="32">
@@ -22549,13 +22549,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="22" customHeight="1">
       <c r="B10" s="86"/>
       <c r="C10" s="88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="35" customHeight="1">
@@ -22571,13 +22571,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="20" customHeight="1">
       <c r="B13" s="86"/>
       <c r="C13" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="48">
@@ -22591,7 +22591,7 @@
     <row r="15" spans="2:16" ht="49" customHeight="1">
       <c r="B15" s="86"/>
       <c r="C15" s="88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="48">
@@ -22599,19 +22599,19 @@
         <v>25</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="48">
       <c r="B17" s="86"/>
       <c r="C17" s="88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="36" customHeight="1">
+    <row r="18" spans="2:3" ht="48">
       <c r="B18" s="86"/>
       <c r="C18" s="88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="64">
@@ -22625,7 +22625,7 @@
     <row r="20" spans="2:3" ht="48">
       <c r="B20" s="86"/>
       <c r="C20" s="88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="48">
@@ -22647,7 +22647,7 @@
     <row r="23" spans="2:3" ht="48">
       <c r="B23" s="86"/>
       <c r="C23" s="88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="48">
@@ -22665,7 +22665,7 @@
     </row>
     <row r="26" spans="2:3" ht="48">
       <c r="C26" s="88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="16">
@@ -22675,7 +22675,7 @@
     </row>
     <row r="29" spans="2:3" ht="48">
       <c r="C29" s="89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
